--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd80-Ctla4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd80-Ctla4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.557693</v>
+        <v>1.152905666666667</v>
       </c>
       <c r="H2">
-        <v>64.673079</v>
+        <v>3.458717</v>
       </c>
       <c r="I2">
-        <v>0.5505707555812251</v>
+        <v>0.06522949989114324</v>
       </c>
       <c r="J2">
-        <v>0.5505707555812251</v>
+        <v>0.06522949989114325</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.300788</v>
+        <v>0.04641433333333334</v>
       </c>
       <c r="N2">
-        <v>0.9023639999999999</v>
+        <v>0.139243</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1185678497650663</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1185678497650663</v>
       </c>
       <c r="Q2">
-        <v>6.484295362084</v>
+        <v>0.05351134791455556</v>
       </c>
       <c r="R2">
-        <v>58.35865825875599</v>
+        <v>0.481602131231</v>
       </c>
       <c r="S2">
-        <v>0.5505707555812251</v>
+        <v>0.007734121543343482</v>
       </c>
       <c r="T2">
-        <v>0.5505707555812251</v>
+        <v>0.007734121543343484</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.981869333333333</v>
+        <v>1.152905666666667</v>
       </c>
       <c r="H3">
-        <v>11.945608</v>
+        <v>3.458717</v>
       </c>
       <c r="I3">
-        <v>0.1016945926207894</v>
+        <v>0.06522949989114324</v>
       </c>
       <c r="J3">
-        <v>0.1016945926207894</v>
+        <v>0.06522949989114325</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.300788</v>
+        <v>0.06025633333333334</v>
       </c>
       <c r="N3">
-        <v>0.9023639999999999</v>
+        <v>0.180769</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1539279650264737</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1539279650264737</v>
       </c>
       <c r="Q3">
-        <v>1.197698513034667</v>
+        <v>0.06946986815255556</v>
       </c>
       <c r="R3">
-        <v>10.779286617312</v>
+        <v>0.6252288133730001</v>
       </c>
       <c r="S3">
-        <v>0.1016945926207894</v>
+        <v>0.01004064417793827</v>
       </c>
       <c r="T3">
-        <v>0.1016945926207894</v>
+        <v>0.01004064417793827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.608641</v>
+        <v>1.152905666666667</v>
       </c>
       <c r="H4">
-        <v>4.825923</v>
+        <v>3.458717</v>
       </c>
       <c r="I4">
-        <v>0.04108374169856384</v>
+        <v>0.06522949989114324</v>
       </c>
       <c r="J4">
-        <v>0.04108374169856383</v>
+        <v>0.06522949989114325</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,33 +679,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.300788</v>
+        <v>0.2847873333333333</v>
       </c>
       <c r="N4">
-        <v>0.9023639999999999</v>
+        <v>0.8543620000000001</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.7275041852084601</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7275041852084601</v>
       </c>
       <c r="Q4">
-        <v>0.4838599091080001</v>
+        <v>0.3283329303948889</v>
       </c>
       <c r="R4">
-        <v>4.354739181972</v>
+        <v>2.954996373554</v>
       </c>
       <c r="S4">
-        <v>0.04108374169856384</v>
+        <v>0.0474547341698615</v>
       </c>
       <c r="T4">
-        <v>0.04108374169856383</v>
+        <v>0.04745473416986151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,542 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.00696933333333</v>
+        <v>3.981869333333333</v>
       </c>
       <c r="H5">
-        <v>36.020908</v>
+        <v>11.945608</v>
       </c>
       <c r="I5">
-        <v>0.3066509100994217</v>
+        <v>0.2252875952949142</v>
       </c>
       <c r="J5">
-        <v>0.3066509100994217</v>
+        <v>0.2252875952949143</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.04641433333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.139243</v>
+      </c>
+      <c r="O5">
+        <v>0.1185678497650663</v>
+      </c>
+      <c r="P5">
+        <v>0.1185678497650663</v>
+      </c>
+      <c r="Q5">
+        <v>0.1848158105271111</v>
+      </c>
+      <c r="R5">
+        <v>1.663342294744</v>
+      </c>
+      <c r="S5">
+        <v>0.02671186575286046</v>
+      </c>
+      <c r="T5">
+        <v>0.02671186575286046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.981869333333333</v>
+      </c>
+      <c r="H6">
+        <v>11.945608</v>
+      </c>
+      <c r="I6">
+        <v>0.2252875952949142</v>
+      </c>
+      <c r="J6">
+        <v>0.2252875952949143</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.06025633333333334</v>
+      </c>
+      <c r="N6">
+        <v>0.180769</v>
+      </c>
+      <c r="O6">
+        <v>0.1539279650264737</v>
+      </c>
+      <c r="P6">
+        <v>0.1539279650264737</v>
+      </c>
+      <c r="Q6">
+        <v>0.2399328458391111</v>
+      </c>
+      <c r="R6">
+        <v>2.159395612552</v>
+      </c>
+      <c r="S6">
+        <v>0.03467806108945392</v>
+      </c>
+      <c r="T6">
+        <v>0.03467806108945392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.981869333333333</v>
+      </c>
+      <c r="H7">
+        <v>11.945608</v>
+      </c>
+      <c r="I7">
+        <v>0.2252875952949142</v>
+      </c>
+      <c r="J7">
+        <v>0.2252875952949143</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M5">
-        <v>0.300788</v>
-      </c>
-      <c r="N5">
-        <v>0.9023639999999999</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>3.611552291834666</v>
-      </c>
-      <c r="R5">
-        <v>32.50397062651199</v>
-      </c>
-      <c r="S5">
-        <v>0.3066509100994217</v>
-      </c>
-      <c r="T5">
-        <v>0.3066509100994217</v>
+      <c r="M7">
+        <v>0.2847873333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.8543620000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.7275041852084601</v>
+      </c>
+      <c r="P7">
+        <v>0.7275041852084601</v>
+      </c>
+      <c r="Q7">
+        <v>1.133985949121778</v>
+      </c>
+      <c r="R7">
+        <v>10.205873542096</v>
+      </c>
+      <c r="S7">
+        <v>0.1638976684525999</v>
+      </c>
+      <c r="T7">
+        <v>0.1638976684525999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.517768666666667</v>
+      </c>
+      <c r="H8">
+        <v>4.553306</v>
+      </c>
+      <c r="I8">
+        <v>0.08587284626968379</v>
+      </c>
+      <c r="J8">
+        <v>0.08587284626968379</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04641433333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.139243</v>
+      </c>
+      <c r="O8">
+        <v>0.1185678497650663</v>
+      </c>
+      <c r="P8">
+        <v>0.1185678497650663</v>
+      </c>
+      <c r="Q8">
+        <v>0.07044622081755557</v>
+      </c>
+      <c r="R8">
+        <v>0.634015987358</v>
+      </c>
+      <c r="S8">
+        <v>0.01018175873540251</v>
+      </c>
+      <c r="T8">
+        <v>0.01018175873540251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.517768666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.553306</v>
+      </c>
+      <c r="I9">
+        <v>0.08587284626968379</v>
+      </c>
+      <c r="J9">
+        <v>0.08587284626968379</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.06025633333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.180769</v>
+      </c>
+      <c r="O9">
+        <v>0.1539279650264737</v>
+      </c>
+      <c r="P9">
+        <v>0.1539279650264737</v>
+      </c>
+      <c r="Q9">
+        <v>0.09145517470155556</v>
+      </c>
+      <c r="R9">
+        <v>0.823096572314</v>
+      </c>
+      <c r="S9">
+        <v>0.01321823247732364</v>
+      </c>
+      <c r="T9">
+        <v>0.01321823247732364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.517768666666667</v>
+      </c>
+      <c r="H10">
+        <v>4.553306</v>
+      </c>
+      <c r="I10">
+        <v>0.08587284626968379</v>
+      </c>
+      <c r="J10">
+        <v>0.08587284626968379</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2847873333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.8543620000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.7275041852084601</v>
+      </c>
+      <c r="P10">
+        <v>0.7275041852084601</v>
+      </c>
+      <c r="Q10">
+        <v>0.4322412911968889</v>
+      </c>
+      <c r="R10">
+        <v>3.890171620772001</v>
+      </c>
+      <c r="S10">
+        <v>0.06247285505695765</v>
+      </c>
+      <c r="T10">
+        <v>0.06247285505695765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.02206166666667</v>
+      </c>
+      <c r="H11">
+        <v>33.066185</v>
+      </c>
+      <c r="I11">
+        <v>0.6236100585442587</v>
+      </c>
+      <c r="J11">
+        <v>0.6236100585442588</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.04641433333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.139243</v>
+      </c>
+      <c r="O11">
+        <v>0.1185678497650663</v>
+      </c>
+      <c r="P11">
+        <v>0.1185678497650663</v>
+      </c>
+      <c r="Q11">
+        <v>0.5115816442172223</v>
+      </c>
+      <c r="R11">
+        <v>4.604234797955001</v>
+      </c>
+      <c r="S11">
+        <v>0.07394010373345988</v>
+      </c>
+      <c r="T11">
+        <v>0.0739401037334599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>11.02206166666667</v>
+      </c>
+      <c r="H12">
+        <v>33.066185</v>
+      </c>
+      <c r="I12">
+        <v>0.6236100585442587</v>
+      </c>
+      <c r="J12">
+        <v>0.6236100585442588</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06025633333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.180769</v>
+      </c>
+      <c r="O12">
+        <v>0.1539279650264737</v>
+      </c>
+      <c r="P12">
+        <v>0.1539279650264737</v>
+      </c>
+      <c r="Q12">
+        <v>0.6641490218072224</v>
+      </c>
+      <c r="R12">
+        <v>5.977341196265002</v>
+      </c>
+      <c r="S12">
+        <v>0.09599102728175786</v>
+      </c>
+      <c r="T12">
+        <v>0.09599102728175787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>11.02206166666667</v>
+      </c>
+      <c r="H13">
+        <v>33.066185</v>
+      </c>
+      <c r="I13">
+        <v>0.6236100585442587</v>
+      </c>
+      <c r="J13">
+        <v>0.6236100585442588</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2847873333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.8543620000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.7275041852084601</v>
+      </c>
+      <c r="P13">
+        <v>0.7275041852084601</v>
+      </c>
+      <c r="Q13">
+        <v>3.138943549885556</v>
+      </c>
+      <c r="R13">
+        <v>28.25049194897001</v>
+      </c>
+      <c r="S13">
+        <v>0.453678927529041</v>
+      </c>
+      <c r="T13">
+        <v>0.453678927529041</v>
       </c>
     </row>
   </sheetData>
